--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,33 +52,42 @@
     <t>died</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,127 +100,157 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -569,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,16 +848,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5294117647058824</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L7">
         <v>16</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>0.8490566037735849</v>
-      </c>
-      <c r="L7">
-        <v>90</v>
-      </c>
       <c r="M7">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5135135135135135</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,16 +1048,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8302872062663186</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L10">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M10">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4656084656084656</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C11">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3720930232558139</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C13">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,37 +1227,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3275862068965517</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.3430232558139535</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1812080536912752</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7578125</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0873015873015873</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.75625</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03753351206434316</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>359</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,49 +1527,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006129032258064516</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>3081</v>
+        <v>128</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>13</v>
-      </c>
-      <c r="M20">
-        <v>13</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,37 +1577,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006074766355140187</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>233</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L21">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>0.19</v>
-      </c>
-      <c r="F21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2127</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
       <c r="M21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,63 +1627,87 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004084197298146403</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>358</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.006083294337856809</v>
+      </c>
+      <c r="C23">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>0.58</v>
-      </c>
-      <c r="F22">
-        <v>0.42</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3170</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>0.32</v>
+      </c>
+      <c r="F23">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2124</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.696969696969697</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1660,17 +1723,41 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.005812076202776881</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0.36</v>
+      </c>
+      <c r="F24">
+        <v>0.64</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3079</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.68</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1682,21 +1769,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004398366321080742</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3169</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6352941176470588</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1708,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6071428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1734,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1760,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5732217573221757</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1786,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5491525423728814</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1812,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1838,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1864,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.525</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1890,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5212765957446809</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1916,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1942,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4382022471910113</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1968,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.358974358974359</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1994,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2020,47 +2131,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.3095238095238095</v>
+        <v>0.5544217687074829</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.273972602739726</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2072,33 +2183,293 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.005646173149309913</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>0.234375</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49">
+        <v>0.0144284128745838</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>0.005647944775651083</v>
+      </c>
+      <c r="L50">
         <v>18</v>
       </c>
-      <c r="M40">
-        <v>31</v>
-      </c>
-      <c r="N40">
-        <v>0.58</v>
-      </c>
-      <c r="O40">
-        <v>0.42</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3170</v>
+      <c r="M50">
+        <v>32</v>
+      </c>
+      <c r="N50">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
